--- a/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
+++ b/en/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_Application_Design/010_System_Functional_Design/System_function_design_document(screen)_WA10103_TOP_menu.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{D601E2BE-A288-409C-B550-DEC8AB7D86B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41320B4-0ABA-450A-8E0B-0AA94F3F6F46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="9800" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" state="hidden" r:id="rId1"/>
@@ -48,79 +48,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{55764191-68BE-49B4-AAEA-639712D824C1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」と訳してください。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{999A2426-23D2-470B-BA27-B824C3B48225}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>TIS:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-Nablarchでの「取引」は「subfunction」と
-訳してください。あわせて表の中の訂正もお願いいたします。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
     <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
@@ -138,34 +65,6 @@
 5. Screen event details
 6. Screen event supplement (1) * This section is described in the internal design process.
 </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{ADFD18AF-239B-49D3-9847-0233BD2EEE3D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>作成者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="MS P ゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-注釈の6番につきまして
-「内部設計工程」は
-「internal design proces」と訳してください。</t>
         </r>
       </text>
     </comment>
@@ -819,10 +718,6 @@
     <t>file</t>
   </si>
   <si>
-    <t>Mandatory</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>Instruction for extracting projects engaged in for each user</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -843,6 +738,10 @@
   </si>
   <si>
     <t>1.1. Subfunction overview</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
@@ -853,7 +752,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1012,21 +911,6 @@
       <color indexed="81"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="MS P ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3550,42 +3434,42 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3596,7 +3480,7 @@
       <c r="K23" s="19"/>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3605,7 +3489,7 @@
       <c r="K24" s="19"/>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3617,7 +3501,7 @@
       <c r="K25" s="132"/>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3626,7 +3510,7 @@
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3635,7 +3519,7 @@
       <c r="K27" s="19"/>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3644,7 +3528,7 @@
       <c r="K28" s="19"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="19"/>
@@ -3652,7 +3536,7 @@
       <c r="K29" s="19"/>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -3661,7 +3545,7 @@
       <c r="K30" s="19"/>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -3670,7 +3554,7 @@
       <c r="K31" s="19"/>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="6:12" ht="19">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -3679,7 +3563,7 @@
       <c r="K32" s="19"/>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="6:19" ht="19">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="19"/>
@@ -3691,7 +3575,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="19">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="19"/>
@@ -3706,515 +3590,515 @@
       <c r="R34" s="33"/>
       <c r="S34" s="33"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="33"/>
       <c r="R35" s="33"/>
       <c r="S35" s="33"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="34"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="34"/>
       <c r="R36" s="33"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="35"/>
       <c r="P37" s="36"/>
       <c r="Q37" s="35"/>
       <c r="R37" s="36"/>
       <c r="S37" s="35"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="36"/>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
       <c r="R38" s="36"/>
       <c r="S38" s="36"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="36"/>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
       <c r="R39" s="36"/>
       <c r="S39" s="36"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -4238,12 +4122,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="26"/>
+    <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1">
+    <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="181" t="s">
         <v>19</v>
       </c>
@@ -4301,7 +4185,7 @@
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="181" t="s">
         <v>24</v>
       </c>
@@ -4355,7 +4239,7 @@
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1">
+    <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="181" t="s">
         <v>27</v>
       </c>
@@ -4401,7 +4285,7 @@
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" s="16" customFormat="1">
+    <row r="4" spans="1:40" s="16" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -4443,7 +4327,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="18" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -4487,7 +4371,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -4529,7 +4413,7 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
         <v>30</v>
       </c>
@@ -4580,7 +4464,7 @@
       <c r="AH7" s="149"/>
       <c r="AI7" s="150"/>
     </row>
-    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="29">
         <v>1</v>
       </c>
@@ -4631,7 +4515,7 @@
       <c r="AH8" s="161"/>
       <c r="AI8" s="162"/>
     </row>
-    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="145"/>
       <c r="C9" s="147"/>
@@ -4668,7 +4552,7 @@
       <c r="AH9" s="158"/>
       <c r="AI9" s="159"/>
     </row>
-    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30"/>
       <c r="B10" s="145"/>
       <c r="C10" s="147"/>
@@ -4705,7 +4589,7 @@
       <c r="AH10" s="158"/>
       <c r="AI10" s="159"/>
     </row>
-    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="30"/>
       <c r="B11" s="145"/>
       <c r="C11" s="147"/>
@@ -4742,7 +4626,7 @@
       <c r="AH11" s="158"/>
       <c r="AI11" s="159"/>
     </row>
-    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30"/>
       <c r="B12" s="145"/>
       <c r="C12" s="147"/>
@@ -4779,7 +4663,7 @@
       <c r="AH12" s="158"/>
       <c r="AI12" s="159"/>
     </row>
-    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="145"/>
       <c r="C13" s="147"/>
@@ -4816,7 +4700,7 @@
       <c r="AH13" s="158"/>
       <c r="AI13" s="159"/>
     </row>
-    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="145"/>
       <c r="C14" s="147"/>
@@ -4853,7 +4737,7 @@
       <c r="AH14" s="158"/>
       <c r="AI14" s="159"/>
     </row>
-    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30"/>
       <c r="B15" s="145"/>
       <c r="C15" s="147"/>
@@ -4890,7 +4774,7 @@
       <c r="AH15" s="158"/>
       <c r="AI15" s="159"/>
     </row>
-    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30"/>
       <c r="B16" s="145"/>
       <c r="C16" s="147"/>
@@ -4927,7 +4811,7 @@
       <c r="AH16" s="158"/>
       <c r="AI16" s="159"/>
     </row>
-    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30"/>
       <c r="B17" s="145"/>
       <c r="C17" s="147"/>
@@ -4964,7 +4848,7 @@
       <c r="AH17" s="158"/>
       <c r="AI17" s="159"/>
     </row>
-    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30"/>
       <c r="B18" s="145"/>
       <c r="C18" s="147"/>
@@ -5001,7 +4885,7 @@
       <c r="AH18" s="158"/>
       <c r="AI18" s="159"/>
     </row>
-    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30"/>
       <c r="B19" s="145"/>
       <c r="C19" s="147"/>
@@ -5038,7 +4922,7 @@
       <c r="AH19" s="158"/>
       <c r="AI19" s="159"/>
     </row>
-    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="145"/>
       <c r="C20" s="147"/>
@@ -5075,7 +4959,7 @@
       <c r="AH20" s="158"/>
       <c r="AI20" s="159"/>
     </row>
-    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="145"/>
       <c r="C21" s="147"/>
@@ -5112,7 +4996,7 @@
       <c r="AH21" s="158"/>
       <c r="AI21" s="159"/>
     </row>
-    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="145"/>
       <c r="C22" s="147"/>
@@ -5149,7 +5033,7 @@
       <c r="AH22" s="158"/>
       <c r="AI22" s="159"/>
     </row>
-    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="145"/>
       <c r="C23" s="147"/>
@@ -5186,7 +5070,7 @@
       <c r="AH23" s="158"/>
       <c r="AI23" s="159"/>
     </row>
-    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="145"/>
       <c r="C24" s="147"/>
@@ -5223,7 +5107,7 @@
       <c r="AH24" s="158"/>
       <c r="AI24" s="159"/>
     </row>
-    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="145"/>
       <c r="C25" s="147"/>
@@ -5260,7 +5144,7 @@
       <c r="AH25" s="158"/>
       <c r="AI25" s="159"/>
     </row>
-    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="145"/>
       <c r="C26" s="147"/>
@@ -5297,7 +5181,7 @@
       <c r="AH26" s="158"/>
       <c r="AI26" s="159"/>
     </row>
-    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="145"/>
       <c r="C27" s="147"/>
@@ -5334,7 +5218,7 @@
       <c r="AH27" s="158"/>
       <c r="AI27" s="159"/>
     </row>
-    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="145"/>
       <c r="C28" s="147"/>
@@ -5371,7 +5255,7 @@
       <c r="AH28" s="158"/>
       <c r="AI28" s="159"/>
     </row>
-    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="145"/>
       <c r="C29" s="147"/>
@@ -5408,7 +5292,7 @@
       <c r="AH29" s="158"/>
       <c r="AI29" s="159"/>
     </row>
-    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="145"/>
       <c r="C30" s="147"/>
@@ -5445,7 +5329,7 @@
       <c r="AH30" s="158"/>
       <c r="AI30" s="159"/>
     </row>
-    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="145"/>
       <c r="C31" s="147"/>
@@ -5482,7 +5366,7 @@
       <c r="AH31" s="158"/>
       <c r="AI31" s="159"/>
     </row>
-    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="145"/>
       <c r="C32" s="147"/>
@@ -5519,7 +5403,7 @@
       <c r="AH32" s="158"/>
       <c r="AI32" s="159"/>
     </row>
-    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="145"/>
       <c r="C33" s="147"/>
@@ -5556,7 +5440,7 @@
       <c r="AH33" s="158"/>
       <c r="AI33" s="159"/>
     </row>
-    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:35" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -5783,152 +5667,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.77734375" style="49" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" style="57" customWidth="1"/>
-    <col min="18" max="33" width="4.77734375" style="49" customWidth="1"/>
-    <col min="34" max="34" width="4.77734375" style="57" customWidth="1"/>
-    <col min="35" max="256" width="4.77734375" style="49"/>
-    <col min="257" max="290" width="4.77734375" style="49" customWidth="1"/>
-    <col min="291" max="512" width="4.77734375" style="49"/>
-    <col min="513" max="546" width="4.77734375" style="49" customWidth="1"/>
-    <col min="547" max="768" width="4.77734375" style="49"/>
-    <col min="769" max="802" width="4.77734375" style="49" customWidth="1"/>
-    <col min="803" max="1024" width="4.77734375" style="49"/>
-    <col min="1025" max="1058" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1059" max="1280" width="4.77734375" style="49"/>
-    <col min="1281" max="1314" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1315" max="1536" width="4.77734375" style="49"/>
-    <col min="1537" max="1570" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1571" max="1792" width="4.77734375" style="49"/>
-    <col min="1793" max="1826" width="4.77734375" style="49" customWidth="1"/>
-    <col min="1827" max="2048" width="4.77734375" style="49"/>
-    <col min="2049" max="2082" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2083" max="2304" width="4.77734375" style="49"/>
-    <col min="2305" max="2338" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2339" max="2560" width="4.77734375" style="49"/>
-    <col min="2561" max="2594" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2595" max="2816" width="4.77734375" style="49"/>
-    <col min="2817" max="2850" width="4.77734375" style="49" customWidth="1"/>
-    <col min="2851" max="3072" width="4.77734375" style="49"/>
-    <col min="3073" max="3106" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3107" max="3328" width="4.77734375" style="49"/>
-    <col min="3329" max="3362" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3363" max="3584" width="4.77734375" style="49"/>
-    <col min="3585" max="3618" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3619" max="3840" width="4.77734375" style="49"/>
-    <col min="3841" max="3874" width="4.77734375" style="49" customWidth="1"/>
-    <col min="3875" max="4096" width="4.77734375" style="49"/>
-    <col min="4097" max="4130" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4131" max="4352" width="4.77734375" style="49"/>
-    <col min="4353" max="4386" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4387" max="4608" width="4.77734375" style="49"/>
-    <col min="4609" max="4642" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4643" max="4864" width="4.77734375" style="49"/>
-    <col min="4865" max="4898" width="4.77734375" style="49" customWidth="1"/>
-    <col min="4899" max="5120" width="4.77734375" style="49"/>
-    <col min="5121" max="5154" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5155" max="5376" width="4.77734375" style="49"/>
-    <col min="5377" max="5410" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5411" max="5632" width="4.77734375" style="49"/>
-    <col min="5633" max="5666" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5667" max="5888" width="4.77734375" style="49"/>
-    <col min="5889" max="5922" width="4.77734375" style="49" customWidth="1"/>
-    <col min="5923" max="6144" width="4.77734375" style="49"/>
-    <col min="6145" max="6178" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6179" max="6400" width="4.77734375" style="49"/>
-    <col min="6401" max="6434" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6435" max="6656" width="4.77734375" style="49"/>
-    <col min="6657" max="6690" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6691" max="6912" width="4.77734375" style="49"/>
-    <col min="6913" max="6946" width="4.77734375" style="49" customWidth="1"/>
-    <col min="6947" max="7168" width="4.77734375" style="49"/>
-    <col min="7169" max="7202" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7203" max="7424" width="4.77734375" style="49"/>
-    <col min="7425" max="7458" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7459" max="7680" width="4.77734375" style="49"/>
-    <col min="7681" max="7714" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7715" max="7936" width="4.77734375" style="49"/>
-    <col min="7937" max="7970" width="4.77734375" style="49" customWidth="1"/>
-    <col min="7971" max="8192" width="4.77734375" style="49"/>
-    <col min="8193" max="8226" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8227" max="8448" width="4.77734375" style="49"/>
-    <col min="8449" max="8482" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8483" max="8704" width="4.77734375" style="49"/>
-    <col min="8705" max="8738" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8739" max="8960" width="4.77734375" style="49"/>
-    <col min="8961" max="8994" width="4.77734375" style="49" customWidth="1"/>
-    <col min="8995" max="9216" width="4.77734375" style="49"/>
-    <col min="9217" max="9250" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9251" max="9472" width="4.77734375" style="49"/>
-    <col min="9473" max="9506" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9507" max="9728" width="4.77734375" style="49"/>
-    <col min="9729" max="9762" width="4.77734375" style="49" customWidth="1"/>
-    <col min="9763" max="9984" width="4.77734375" style="49"/>
-    <col min="9985" max="10018" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10019" max="10240" width="4.77734375" style="49"/>
-    <col min="10241" max="10274" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10275" max="10496" width="4.77734375" style="49"/>
-    <col min="10497" max="10530" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10531" max="10752" width="4.77734375" style="49"/>
-    <col min="10753" max="10786" width="4.77734375" style="49" customWidth="1"/>
-    <col min="10787" max="11008" width="4.77734375" style="49"/>
-    <col min="11009" max="11042" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11043" max="11264" width="4.77734375" style="49"/>
-    <col min="11265" max="11298" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11299" max="11520" width="4.77734375" style="49"/>
-    <col min="11521" max="11554" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11555" max="11776" width="4.77734375" style="49"/>
-    <col min="11777" max="11810" width="4.77734375" style="49" customWidth="1"/>
-    <col min="11811" max="12032" width="4.77734375" style="49"/>
-    <col min="12033" max="12066" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12067" max="12288" width="4.77734375" style="49"/>
-    <col min="12289" max="12322" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12323" max="12544" width="4.77734375" style="49"/>
-    <col min="12545" max="12578" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12579" max="12800" width="4.77734375" style="49"/>
-    <col min="12801" max="12834" width="4.77734375" style="49" customWidth="1"/>
-    <col min="12835" max="13056" width="4.77734375" style="49"/>
-    <col min="13057" max="13090" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13091" max="13312" width="4.77734375" style="49"/>
-    <col min="13313" max="13346" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13347" max="13568" width="4.77734375" style="49"/>
-    <col min="13569" max="13602" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13603" max="13824" width="4.77734375" style="49"/>
-    <col min="13825" max="13858" width="4.77734375" style="49" customWidth="1"/>
-    <col min="13859" max="14080" width="4.77734375" style="49"/>
-    <col min="14081" max="14114" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14115" max="14336" width="4.77734375" style="49"/>
-    <col min="14337" max="14370" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14371" max="14592" width="4.77734375" style="49"/>
-    <col min="14593" max="14626" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14627" max="14848" width="4.77734375" style="49"/>
-    <col min="14849" max="14882" width="4.77734375" style="49" customWidth="1"/>
-    <col min="14883" max="15104" width="4.77734375" style="49"/>
-    <col min="15105" max="15138" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15139" max="15360" width="4.77734375" style="49"/>
-    <col min="15361" max="15394" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15395" max="15616" width="4.77734375" style="49"/>
-    <col min="15617" max="15650" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15651" max="15872" width="4.77734375" style="49"/>
-    <col min="15873" max="15906" width="4.77734375" style="49" customWidth="1"/>
-    <col min="15907" max="16128" width="4.77734375" style="49"/>
-    <col min="16129" max="16162" width="4.77734375" style="49" customWidth="1"/>
-    <col min="16163" max="16384" width="4.77734375" style="49"/>
+    <col min="1" max="16" width="4.83203125" style="49" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="57" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="49" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="57" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="49"/>
+    <col min="257" max="290" width="4.83203125" style="49" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="49"/>
+    <col min="513" max="546" width="4.83203125" style="49" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="49"/>
+    <col min="769" max="802" width="4.83203125" style="49" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="49"/>
+    <col min="1025" max="1058" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="49"/>
+    <col min="1281" max="1314" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="49"/>
+    <col min="1537" max="1570" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="49"/>
+    <col min="1793" max="1826" width="4.83203125" style="49" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="49"/>
+    <col min="2049" max="2082" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="49"/>
+    <col min="2305" max="2338" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="49"/>
+    <col min="2561" max="2594" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="49"/>
+    <col min="2817" max="2850" width="4.83203125" style="49" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="49"/>
+    <col min="3073" max="3106" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="49"/>
+    <col min="3329" max="3362" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="49"/>
+    <col min="3585" max="3618" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="49"/>
+    <col min="3841" max="3874" width="4.83203125" style="49" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="49"/>
+    <col min="4097" max="4130" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="49"/>
+    <col min="4353" max="4386" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="49"/>
+    <col min="4609" max="4642" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="49"/>
+    <col min="4865" max="4898" width="4.83203125" style="49" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="49"/>
+    <col min="5121" max="5154" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="49"/>
+    <col min="5377" max="5410" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="49"/>
+    <col min="5633" max="5666" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="49"/>
+    <col min="5889" max="5922" width="4.83203125" style="49" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="49"/>
+    <col min="6145" max="6178" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="49"/>
+    <col min="6401" max="6434" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="49"/>
+    <col min="6657" max="6690" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="49"/>
+    <col min="6913" max="6946" width="4.83203125" style="49" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="49"/>
+    <col min="7169" max="7202" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="49"/>
+    <col min="7425" max="7458" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="49"/>
+    <col min="7681" max="7714" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="49"/>
+    <col min="7937" max="7970" width="4.83203125" style="49" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="49"/>
+    <col min="8193" max="8226" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="49"/>
+    <col min="8449" max="8482" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="49"/>
+    <col min="8705" max="8738" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="49"/>
+    <col min="8961" max="8994" width="4.83203125" style="49" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="49"/>
+    <col min="9217" max="9250" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="49"/>
+    <col min="9473" max="9506" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="49"/>
+    <col min="9729" max="9762" width="4.83203125" style="49" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="49"/>
+    <col min="9985" max="10018" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="49"/>
+    <col min="10241" max="10274" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="49"/>
+    <col min="10497" max="10530" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="49"/>
+    <col min="10753" max="10786" width="4.83203125" style="49" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="49"/>
+    <col min="11009" max="11042" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="49"/>
+    <col min="11265" max="11298" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="49"/>
+    <col min="11521" max="11554" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="49"/>
+    <col min="11777" max="11810" width="4.83203125" style="49" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="49"/>
+    <col min="12033" max="12066" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="49"/>
+    <col min="12289" max="12322" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="49"/>
+    <col min="12545" max="12578" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="49"/>
+    <col min="12801" max="12834" width="4.83203125" style="49" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="49"/>
+    <col min="13057" max="13090" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="49"/>
+    <col min="13313" max="13346" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="49"/>
+    <col min="13569" max="13602" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="49"/>
+    <col min="13825" max="13858" width="4.83203125" style="49" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="49"/>
+    <col min="14081" max="14114" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="49"/>
+    <col min="14337" max="14370" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="49"/>
+    <col min="14593" max="14626" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="49"/>
+    <col min="14849" max="14882" width="4.83203125" style="49" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="49"/>
+    <col min="15105" max="15138" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="49"/>
+    <col min="15361" max="15394" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="49"/>
+    <col min="15617" max="15650" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="49"/>
+    <col min="15873" max="15906" width="4.83203125" style="49" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="49"/>
+    <col min="16129" max="16162" width="4.83203125" style="49" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="204" t="s">
         <v>0</v>
       </c>
@@ -5984,7 +5868,7 @@
       <c r="AH1" s="199"/>
       <c r="AI1" s="200"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="204" t="s">
         <v>3</v>
       </c>
@@ -6034,7 +5918,7 @@
       <c r="AH2" s="199"/>
       <c r="AI2" s="200"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" ht="11.5" hidden="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" ht="12" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="204" t="s">
         <v>5</v>
       </c>
@@ -6082,7 +5966,7 @@
       <c r="AH3" s="199"/>
       <c r="AI3" s="200"/>
     </row>
-    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1">
+    <row r="4" spans="1:35" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -6119,7 +6003,7 @@
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
     </row>
-    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="38"/>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -6158,7 +6042,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38"/>
@@ -6195,10 +6079,10 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42"/>
       <c r="B7" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="44"/>
@@ -6234,11 +6118,11 @@
       <c r="AH7" s="47"/>
       <c r="AI7" s="48"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -6273,7 +6157,7 @@
       <c r="AH8" s="51"/>
       <c r="AI8" s="48"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="42"/>
       <c r="B9" s="44"/>
       <c r="C9" s="43"/>
@@ -6310,7 +6194,7 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="42"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="42"/>
       <c r="B10" s="53" t="s">
         <v>43</v>
@@ -6349,7 +6233,7 @@
       <c r="AH10" s="47"/>
       <c r="AI10" s="48"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42"/>
       <c r="B11" s="44"/>
       <c r="C11" s="53" t="s">
@@ -6388,7 +6272,7 @@
       <c r="AH11" s="47"/>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42"/>
       <c r="B12" s="44"/>
       <c r="C12" s="42" t="s">
@@ -6422,7 +6306,7 @@
       <c r="AH12" s="47"/>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42"/>
       <c r="B13" s="48"/>
       <c r="C13" s="54" t="s">
@@ -6461,7 +6345,7 @@
       <c r="AH13" s="47"/>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="42"/>
       <c r="B14" s="53"/>
       <c r="C14" s="54" t="s">
@@ -6500,7 +6384,7 @@
       <c r="AH14" s="47"/>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42"/>
       <c r="B15" s="53"/>
       <c r="C15" s="54" t="s">
@@ -6535,7 +6419,7 @@
       <c r="AH15" s="47"/>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="38"/>
       <c r="C16" s="42" t="s">
@@ -6574,7 +6458,7 @@
       <c r="AH16" s="47"/>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="42"/>
       <c r="B17" s="38"/>
       <c r="C17" s="56"/>
@@ -6610,7 +6494,7 @@
       <c r="AH17" s="47"/>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
       <c r="B18" s="58"/>
       <c r="C18" s="58"/>
@@ -6647,7 +6531,7 @@
       <c r="AH18" s="64"/>
       <c r="AI18" s="65"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="66"/>
       <c r="E19" s="66"/>
       <c r="F19" s="66"/>
@@ -6681,7 +6565,7 @@
       <c r="AH19" s="64"/>
       <c r="AI19" s="65"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J20" s="66"/>
       <c r="K20" s="59"/>
       <c r="L20" s="59"/>
@@ -6709,7 +6593,7 @@
       <c r="AH20" s="64"/>
       <c r="AI20" s="65"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="58"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
@@ -6736,7 +6620,7 @@
       <c r="AH21" s="69"/>
       <c r="AI21" s="58"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K22" s="66"/>
       <c r="L22" s="66"/>
       <c r="M22" s="66"/>
@@ -6761,7 +6645,7 @@
       <c r="AH22" s="75"/>
       <c r="AI22" s="71"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S23" s="71"/>
       <c r="T23" s="71"/>
       <c r="U23" s="72"/>
@@ -6780,7 +6664,7 @@
       <c r="AH23" s="78"/>
       <c r="AI23" s="71"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J24" s="66"/>
       <c r="Q24" s="79"/>
       <c r="S24" s="71"/>
@@ -6801,7 +6685,7 @@
       <c r="AH24" s="78"/>
       <c r="AI24" s="71"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S25" s="71"/>
       <c r="T25" s="71"/>
       <c r="U25" s="71"/>
@@ -6820,7 +6704,7 @@
       <c r="AH25" s="78"/>
       <c r="AI25" s="71"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="66"/>
       <c r="K26" s="66"/>
       <c r="L26" s="66"/>
@@ -6834,7 +6718,7 @@
       <c r="AH26" s="78"/>
       <c r="AI26" s="71"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="66"/>
       <c r="AE27" s="71"/>
       <c r="AF27" s="76"/>
@@ -6842,28 +6726,28 @@
       <c r="AH27" s="78"/>
       <c r="AI27" s="71"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE28" s="71"/>
       <c r="AF28" s="76"/>
       <c r="AG28" s="76"/>
       <c r="AH28" s="78"/>
       <c r="AI28" s="71"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF29" s="80"/>
       <c r="AG29" s="80"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG30" s="80"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF31" s="80"/>
       <c r="AG31" s="80"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG32" s="80"/>
     </row>
-    <row r="33" spans="1:34" ht="15" customHeight="1">
+    <row r="33" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
       <c r="V33" s="66"/>
@@ -6876,7 +6760,7 @@
       <c r="AC33" s="66"/>
       <c r="AD33" s="66"/>
     </row>
-    <row r="34" spans="1:34" ht="15" customHeight="1">
+    <row r="34" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R34" s="66"/>
       <c r="S34" s="66"/>
       <c r="T34" s="66"/>
@@ -6891,10 +6775,10 @@
       <c r="AD34" s="66"/>
       <c r="AG34" s="80"/>
     </row>
-    <row r="35" spans="1:34" ht="15" customHeight="1">
+    <row r="35" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R35" s="66"/>
     </row>
-    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="36" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -6927,7 +6811,7 @@
       <c r="AD36" s="49"/>
       <c r="AH36" s="79"/>
     </row>
-    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1">
+    <row r="37" spans="1:34" s="66" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="49"/>
@@ -6984,27 +6868,26 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:AG8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1">
+    <row r="1" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A1" s="204" t="s">
         <v>6</v>
       </c>
@@ -7060,7 +6943,7 @@
       <c r="AH1" s="199"/>
       <c r="AI1" s="200"/>
     </row>
-    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1">
+    <row r="2" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A2" s="204" t="s">
         <v>9</v>
       </c>
@@ -7110,7 +6993,7 @@
       <c r="AH2" s="199"/>
       <c r="AI2" s="200"/>
     </row>
-    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1">
+    <row r="3" spans="1:35" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
       <c r="A3" s="204" t="s">
         <v>11</v>
       </c>
@@ -7158,22 +7041,22 @@
       <c r="AH3" s="199"/>
       <c r="AI3" s="200"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1"/>
-    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="81"/>
       <c r="C8" s="235" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="236"/>
       <c r="E8" s="236"/>
@@ -7208,10 +7091,10 @@
       <c r="AF8" s="236"/>
       <c r="AG8" s="237"/>
     </row>
-    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="81"/>
       <c r="C9" s="240" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" s="241"/>
       <c r="E9" s="241"/>
@@ -7246,10 +7129,10 @@
       <c r="AF9" s="236"/>
       <c r="AG9" s="237"/>
     </row>
-    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="81"/>
       <c r="C10" s="226" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="227"/>
       <c r="E10" s="227"/>
@@ -7284,7 +7167,7 @@
       <c r="AF10" s="83"/>
       <c r="AG10" s="84"/>
     </row>
-    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="81"/>
       <c r="C11" s="229"/>
       <c r="D11" s="230"/>
@@ -7318,7 +7201,7 @@
       <c r="AF11" s="40"/>
       <c r="AG11" s="86"/>
     </row>
-    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="81"/>
       <c r="C12" s="229"/>
       <c r="D12" s="230"/>
@@ -7352,7 +7235,7 @@
       <c r="AF12" s="40"/>
       <c r="AG12" s="86"/>
     </row>
-    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="81"/>
       <c r="C13" s="232"/>
       <c r="D13" s="233"/>
@@ -7386,7 +7269,7 @@
       <c r="AF13" s="89"/>
       <c r="AG13" s="90"/>
     </row>
-    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:35" s="58" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="81"/>
       <c r="C14" s="225" t="s">
         <v>53</v>
@@ -7424,44 +7307,44 @@
       <c r="AF14" s="92"/>
       <c r="AG14" s="93"/>
     </row>
-    <row r="15" spans="1:35" ht="12" customHeight="1"/>
-    <row r="16" spans="1:35" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" ht="12" customHeight="1"/>
-    <row r="34" ht="12" customHeight="1"/>
-    <row r="35" ht="12" customHeight="1"/>
-    <row r="36" ht="12" customHeight="1"/>
-    <row r="37" ht="12" customHeight="1"/>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" ht="12" customHeight="1"/>
-    <row r="40" ht="12" customHeight="1"/>
-    <row r="41" ht="12" customHeight="1"/>
-    <row r="42" ht="12" customHeight="1"/>
-    <row r="43" ht="12" customHeight="1"/>
-    <row r="44" ht="12" customHeight="1"/>
-    <row r="45" ht="12" customHeight="1"/>
-    <row r="46" ht="12" customHeight="1"/>
-    <row r="47" ht="12" customHeight="1"/>
-    <row r="48" ht="12" customHeight="1"/>
-    <row r="49" ht="12" customHeight="1"/>
-    <row r="50" ht="12" customHeight="1"/>
-    <row r="51" ht="12" customHeight="1"/>
-    <row r="52" ht="12" customHeight="1"/>
+    <row r="15" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="A1:D1"/>
@@ -7495,7 +7378,6 @@
   <headerFooter>
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7510,14 +7392,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.77734375" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="4.77734375" style="54"/>
-    <col min="8" max="9" width="4.77734375" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="4.77734375" style="54"/>
+    <col min="1" max="7" width="4.83203125" style="54"/>
+    <col min="8" max="9" width="4.83203125" style="54" customWidth="1"/>
+    <col min="10" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1">
+    <row r="1" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A1" s="288" t="s">
         <v>12</v>
       </c>
@@ -7574,7 +7456,7 @@
       <c r="AI1" s="287"/>
       <c r="AJ1" s="94"/>
     </row>
-    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1">
+    <row r="2" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="288" t="s">
         <v>15</v>
       </c>
@@ -7625,7 +7507,7 @@
       <c r="AI2" s="287"/>
       <c r="AJ2" s="94"/>
     </row>
-    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1">
+    <row r="3" spans="1:36" s="37" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="288" t="s">
         <v>17</v>
       </c>
@@ -7674,51 +7556,51 @@
       <c r="AI3" s="287"/>
       <c r="AJ3" s="94"/>
     </row>
-    <row r="4" spans="1:36" ht="12" customHeight="1"/>
-    <row r="5" spans="1:36" ht="12" customHeight="1">
+    <row r="4" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="12" customHeight="1">
+    <row r="6" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="54" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="12" customHeight="1"/>
-    <row r="8" spans="1:36" ht="12" customHeight="1"/>
-    <row r="9" spans="1:36" ht="12" customHeight="1"/>
-    <row r="10" spans="1:36" ht="12" customHeight="1"/>
-    <row r="11" spans="1:36" ht="12" customHeight="1"/>
-    <row r="12" spans="1:36" ht="12" customHeight="1"/>
-    <row r="13" spans="1:36" ht="12" customHeight="1"/>
-    <row r="14" spans="1:36" ht="12" customHeight="1"/>
-    <row r="15" spans="1:36" ht="12" customHeight="1"/>
-    <row r="16" spans="1:36" ht="12" customHeight="1"/>
-    <row r="17" ht="12" customHeight="1"/>
-    <row r="18" ht="12" customHeight="1"/>
-    <row r="19" ht="12" customHeight="1"/>
-    <row r="20" ht="12" customHeight="1"/>
-    <row r="21" ht="12" customHeight="1"/>
-    <row r="22" ht="12" customHeight="1"/>
-    <row r="23" ht="12" customHeight="1"/>
-    <row r="24" ht="12" customHeight="1"/>
-    <row r="25" ht="12" customHeight="1"/>
-    <row r="26" ht="12" customHeight="1"/>
-    <row r="27" ht="12" customHeight="1"/>
-    <row r="28" ht="12" customHeight="1"/>
-    <row r="29" ht="12" customHeight="1"/>
-    <row r="30" ht="12" customHeight="1"/>
-    <row r="31" ht="12" customHeight="1"/>
-    <row r="32" ht="12" customHeight="1"/>
-    <row r="33" spans="3:53" ht="12" customHeight="1"/>
-    <row r="34" spans="3:53" ht="12" customHeight="1"/>
-    <row r="35" spans="3:53" ht="12" customHeight="1"/>
-    <row r="36" spans="3:53" ht="12" customHeight="1"/>
-    <row r="37" spans="3:53" ht="12" customHeight="1"/>
-    <row r="38" spans="3:53" ht="12" customHeight="1"/>
-    <row r="39" spans="3:53" ht="12" customHeight="1"/>
-    <row r="40" spans="3:53" ht="12" customHeight="1">
+    <row r="7" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:36" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:53" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="96"/>
       <c r="E40" s="96"/>
       <c r="F40" s="96"/>
@@ -7751,7 +7633,7 @@
       <c r="AG40" s="96"/>
       <c r="AH40" s="96"/>
     </row>
-    <row r="41" spans="3:53">
+    <row r="41" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C41" s="40" t="s">
         <v>45</v>
       </c>
@@ -7786,7 +7668,7 @@
       <c r="AG41" s="96"/>
       <c r="AH41" s="96"/>
     </row>
-    <row r="42" spans="3:53">
+    <row r="42" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C42" s="40"/>
       <c r="D42" s="96"/>
       <c r="E42" s="96"/>
@@ -7819,7 +7701,7 @@
       <c r="AG42" s="96"/>
       <c r="AH42" s="96"/>
     </row>
-    <row r="43" spans="3:53">
+    <row r="43" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D43" s="97" t="s">
         <v>30</v>
       </c>
@@ -7862,7 +7744,7 @@
       <c r="AG43" s="96"/>
       <c r="AH43" s="96"/>
     </row>
-    <row r="44" spans="3:53" ht="11.25" customHeight="1">
+    <row r="44" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D44" s="98">
         <v>1</v>
       </c>
@@ -7901,7 +7783,7 @@
       <c r="AC44" s="302"/>
       <c r="AM44" s="40"/>
     </row>
-    <row r="45" spans="3:53" ht="11.25" customHeight="1">
+    <row r="45" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" s="99"/>
       <c r="E45" s="100"/>
       <c r="F45" s="100"/>
@@ -7930,10 +7812,10 @@
       <c r="AC45" s="96"/>
       <c r="AM45" s="40"/>
     </row>
-    <row r="46" spans="3:53" ht="11.25" customHeight="1">
+    <row r="46" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O46" s="100"/>
     </row>
-    <row r="47" spans="3:53">
+    <row r="47" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C47" s="54" t="s">
         <v>46</v>
       </c>
@@ -7955,7 +7837,7 @@
       <c r="AZ47" s="81"/>
       <c r="BA47" s="81"/>
     </row>
-    <row r="48" spans="3:53" s="58" customFormat="1">
+    <row r="48" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="AJ48" s="49"/>
       <c r="AK48" s="49"/>
       <c r="AL48" s="49"/>
@@ -7974,7 +7856,7 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
     </row>
-    <row r="49" spans="3:53" s="58" customFormat="1">
+    <row r="49" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D49" s="293" t="s">
         <v>30</v>
       </c>
@@ -8022,7 +7904,7 @@
       <c r="AP49" s="81"/>
       <c r="AQ49" s="81"/>
     </row>
-    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+    <row r="50" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D50" s="294"/>
       <c r="E50" s="226" t="s">
         <v>61</v>
@@ -8059,7 +7941,7 @@
       <c r="AA50" s="227"/>
       <c r="AB50" s="228"/>
       <c r="AC50" s="293" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="AD50" s="229"/>
       <c r="AE50" s="230"/>
@@ -8079,7 +7961,7 @@
       <c r="AS50" s="49"/>
       <c r="AT50" s="49"/>
     </row>
-    <row r="51" spans="3:53" s="58" customFormat="1">
+    <row r="51" spans="3:53" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D51" s="295"/>
       <c r="E51" s="232"/>
       <c r="F51" s="233"/>
@@ -8124,7 +8006,7 @@
       <c r="AS51" s="49"/>
       <c r="AT51" s="49"/>
     </row>
-    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1">
+    <row r="52" spans="3:53" s="58" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="101">
         <v>1</v>
       </c>
@@ -8185,10 +8067,10 @@
       <c r="AS52" s="49"/>
       <c r="AT52" s="49"/>
     </row>
-    <row r="53" spans="3:53" ht="11.25" customHeight="1">
+    <row r="53" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AY53" s="56"/>
     </row>
-    <row r="54" spans="3:53">
+    <row r="54" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D54" s="103"/>
       <c r="E54" s="104"/>
       <c r="F54" s="105"/>
@@ -8230,7 +8112,7 @@
       <c r="AR54" s="42"/>
       <c r="AS54" s="42"/>
     </row>
-    <row r="55" spans="3:53">
+    <row r="55" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C55" s="54" t="s">
         <v>47</v>
       </c>
@@ -8275,7 +8157,7 @@
       <c r="AR55" s="42"/>
       <c r="AS55" s="42"/>
     </row>
-    <row r="56" spans="3:53" ht="11.25" customHeight="1">
+    <row r="56" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AI56" s="105"/>
       <c r="AJ56" s="105"/>
       <c r="AK56" s="42"/>
@@ -8292,7 +8174,7 @@
       <c r="AV56" s="42"/>
       <c r="AW56" s="42"/>
     </row>
-    <row r="57" spans="3:53">
+    <row r="57" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D57" s="259" t="s">
         <v>30</v>
       </c>
@@ -8350,7 +8232,7 @@
       <c r="AV57" s="42"/>
       <c r="AW57" s="42"/>
     </row>
-    <row r="58" spans="3:53">
+    <row r="58" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D58" s="260"/>
       <c r="E58" s="264"/>
       <c r="F58" s="265"/>
@@ -8406,7 +8288,7 @@
       <c r="AV58" s="42"/>
       <c r="AW58" s="42"/>
     </row>
-    <row r="59" spans="3:53">
+    <row r="59" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D59" s="110">
         <v>1</v>
       </c>
@@ -8470,7 +8352,7 @@
       <c r="AV59" s="42"/>
       <c r="AW59" s="42"/>
     </row>
-    <row r="60" spans="3:53">
+    <row r="60" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D60" s="113"/>
       <c r="E60" s="114"/>
       <c r="F60" s="114"/>
@@ -8518,7 +8400,7 @@
       <c r="AZ60" s="42"/>
       <c r="BA60" s="42"/>
     </row>
-    <row r="61" spans="3:53">
+    <row r="61" spans="3:53" x14ac:dyDescent="0.2">
       <c r="D61" s="103"/>
       <c r="E61" s="104"/>
       <c r="F61" s="105"/>
@@ -8562,7 +8444,7 @@
       <c r="AZ61" s="42"/>
       <c r="BA61" s="42"/>
     </row>
-    <row r="62" spans="3:53">
+    <row r="62" spans="3:53" x14ac:dyDescent="0.2">
       <c r="C62" s="54" t="s">
         <v>48</v>
       </c>
@@ -8576,7 +8458,7 @@
       <c r="AZ62" s="42"/>
       <c r="BA62" s="42"/>
     </row>
-    <row r="64" spans="3:53" ht="11.25" customHeight="1">
+    <row r="64" spans="3:53" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="116"/>
       <c r="D64" s="117" t="s">
         <v>30</v>
@@ -8622,7 +8504,7 @@
       <c r="AG64" s="270"/>
       <c r="AH64" s="271"/>
     </row>
-    <row r="65" spans="1:56" ht="27" customHeight="1">
+    <row r="65" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" s="118">
         <v>1</v>
       </c>
@@ -8667,7 +8549,7 @@
       <c r="AG65" s="276"/>
       <c r="AH65" s="277"/>
     </row>
-    <row r="66" spans="1:56" ht="27" customHeight="1">
+    <row r="66" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D66" s="119">
         <v>2</v>
       </c>
@@ -8712,7 +8594,7 @@
       <c r="AG66" s="247"/>
       <c r="AH66" s="248"/>
     </row>
-    <row r="67" spans="1:56" ht="27" customHeight="1">
+    <row r="67" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D67" s="118">
         <v>3</v>
       </c>
@@ -8757,7 +8639,7 @@
       <c r="AG67" s="276"/>
       <c r="AH67" s="277"/>
     </row>
-    <row r="68" spans="1:56" ht="27" customHeight="1">
+    <row r="68" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D68" s="119">
         <v>4</v>
       </c>
@@ -8805,7 +8687,7 @@
       <c r="AO68" s="42"/>
       <c r="AP68" s="42"/>
     </row>
-    <row r="69" spans="1:56" ht="27" customHeight="1">
+    <row r="69" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D69" s="119">
         <v>5</v>
       </c>
@@ -8853,7 +8735,7 @@
       <c r="AO69" s="42"/>
       <c r="AP69" s="42"/>
     </row>
-    <row r="70" spans="1:56" ht="27" customHeight="1">
+    <row r="70" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D70" s="119">
         <v>6</v>
       </c>
@@ -8885,7 +8767,7 @@
       <c r="X70" s="244"/>
       <c r="Y70" s="245"/>
       <c r="Z70" s="243" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AA70" s="244"/>
       <c r="AB70" s="244"/>
@@ -8898,7 +8780,7 @@
       <c r="AG70" s="247"/>
       <c r="AH70" s="248"/>
     </row>
-    <row r="71" spans="1:56" ht="27" customHeight="1">
+    <row r="71" spans="1:56" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D71" s="119">
         <v>7</v>
       </c>
@@ -8943,7 +8825,7 @@
       <c r="AG71" s="247"/>
       <c r="AH71" s="248"/>
     </row>
-    <row r="72" spans="1:56" s="56" customFormat="1">
+    <row r="72" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D72" s="120"/>
       <c r="E72" s="121"/>
       <c r="F72" s="121"/>
@@ -8979,7 +8861,7 @@
       <c r="AO72" s="38"/>
       <c r="AP72" s="38"/>
     </row>
-    <row r="73" spans="1:56">
+    <row r="73" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A73" s="42"/>
       <c r="B73" s="42"/>
       <c r="C73" s="42"/>
@@ -9031,7 +8913,7 @@
       <c r="BA73" s="42"/>
       <c r="BB73" s="42"/>
     </row>
-    <row r="74" spans="1:56">
+    <row r="74" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C74" s="42" t="s">
         <v>49</v>
       </c>
@@ -9057,7 +8939,7 @@
       <c r="BC74" s="42"/>
       <c r="BD74" s="42"/>
     </row>
-    <row r="75" spans="1:56" ht="11.25" customHeight="1">
+    <row r="75" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="42"/>
       <c r="D75" s="122" t="s">
         <v>101</v>
@@ -9079,7 +8961,7 @@
       <c r="BC75" s="42"/>
       <c r="BD75" s="42"/>
     </row>
-    <row r="76" spans="1:56" ht="11.25" customHeight="1">
+    <row r="76" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="42"/>
       <c r="D76" s="122"/>
       <c r="E76" s="122"/>
@@ -9099,7 +8981,7 @@
       <c r="BC76" s="42"/>
       <c r="BD76" s="42"/>
     </row>
-    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1">
+    <row r="77" spans="1:56" s="56" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="38"/>
       <c r="D77" s="122"/>
       <c r="E77" s="122" t="s">
@@ -9107,13 +8989,13 @@
       </c>
       <c r="AP77" s="38"/>
     </row>
-    <row r="78" spans="1:56">
+    <row r="78" spans="1:56" x14ac:dyDescent="0.2">
       <c r="C78" s="42"/>
       <c r="D78" s="122"/>
       <c r="E78" s="122"/>
       <c r="F78" s="122"/>
     </row>
-    <row r="79" spans="1:56" ht="11.25" customHeight="1">
+    <row r="79" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="42"/>
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
@@ -9122,7 +9004,7 @@
       </c>
       <c r="AP79" s="42"/>
     </row>
-    <row r="80" spans="1:56" s="56" customFormat="1">
+    <row r="80" spans="1:56" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="38"/>
       <c r="B80" s="44"/>
       <c r="C80" s="38"/>
@@ -9159,13 +9041,13 @@
       <c r="AI80" s="124"/>
       <c r="AJ80" s="104"/>
     </row>
-    <row r="81" spans="3:58" ht="11.25" customHeight="1">
+    <row r="81" spans="3:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="42"/>
       <c r="D81" s="122"/>
       <c r="E81" s="122"/>
       <c r="AP81" s="42"/>
     </row>
-    <row r="82" spans="3:58">
+    <row r="82" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E82" s="54" t="s">
         <v>104</v>
       </c>
@@ -9194,7 +9076,7 @@
       <c r="BE82" s="125"/>
       <c r="BF82" s="125"/>
     </row>
-    <row r="83" spans="3:58">
+    <row r="83" spans="3:58" x14ac:dyDescent="0.2">
       <c r="H83" s="44"/>
       <c r="AJ83" s="125"/>
       <c r="AK83" s="125"/>
@@ -9220,7 +9102,7 @@
       <c r="BE83" s="125"/>
       <c r="BF83" s="125"/>
     </row>
-    <row r="84" spans="3:58">
+    <row r="84" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E84" s="66"/>
       <c r="F84" s="66" t="s">
         <v>105</v>
@@ -9249,7 +9131,7 @@
       <c r="BE84" s="125"/>
       <c r="BF84" s="125"/>
     </row>
-    <row r="85" spans="3:58">
+    <row r="85" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E85" s="66"/>
       <c r="F85" s="126"/>
       <c r="G85" s="66" t="s">
@@ -9279,7 +9161,7 @@
       <c r="BE85" s="125"/>
       <c r="BF85" s="125"/>
     </row>
-    <row r="86" spans="3:58">
+    <row r="86" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E86" s="66"/>
       <c r="F86" s="126"/>
       <c r="G86" s="66" t="s">
@@ -9309,7 +9191,7 @@
       <c r="BE86" s="125"/>
       <c r="BF86" s="125"/>
     </row>
-    <row r="87" spans="3:58">
+    <row r="87" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E87" s="66"/>
       <c r="F87" s="126"/>
       <c r="G87" s="66" t="s">
@@ -9339,7 +9221,7 @@
       <c r="BE87" s="125"/>
       <c r="BF87" s="125"/>
     </row>
-    <row r="88" spans="3:58">
+    <row r="88" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E88" s="66"/>
       <c r="F88" s="126"/>
       <c r="G88" s="66" t="s">
@@ -9369,7 +9251,7 @@
       <c r="BE88" s="125"/>
       <c r="BF88" s="125"/>
     </row>
-    <row r="89" spans="3:58">
+    <row r="89" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E89" s="66"/>
       <c r="F89" s="126"/>
       <c r="G89" s="66" t="s">
@@ -9399,7 +9281,7 @@
       <c r="BE89" s="125"/>
       <c r="BF89" s="125"/>
     </row>
-    <row r="90" spans="3:58">
+    <row r="90" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E90" s="66"/>
       <c r="F90" s="126"/>
       <c r="G90" s="66"/>
@@ -9427,7 +9309,7 @@
       <c r="BE90" s="125"/>
       <c r="BF90" s="125"/>
     </row>
-    <row r="91" spans="3:58">
+    <row r="91" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E91" s="66"/>
       <c r="AJ91" s="125"/>
       <c r="AK91" s="125"/>
@@ -9453,22 +9335,22 @@
       <c r="BE91" s="125"/>
       <c r="BF91" s="125"/>
     </row>
-    <row r="92" spans="3:58">
+    <row r="92" spans="3:58" x14ac:dyDescent="0.2">
       <c r="D92" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="3:58">
+    <row r="94" spans="3:58" x14ac:dyDescent="0.2">
       <c r="E94" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="3:58">
+    <row r="96" spans="3:58" x14ac:dyDescent="0.2">
       <c r="F96" s="54" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="97" spans="1:58" s="56" customFormat="1">
+    <row r="97" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="38"/>
       <c r="B97" s="44"/>
       <c r="C97" s="38"/>
@@ -9505,7 +9387,7 @@
       <c r="AI97" s="124"/>
       <c r="AJ97" s="104"/>
     </row>
-    <row r="98" spans="1:58">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E98" s="66"/>
       <c r="AJ98" s="125"/>
       <c r="AK98" s="125"/>
@@ -9531,22 +9413,22 @@
       <c r="BE98" s="125"/>
       <c r="BF98" s="125"/>
     </row>
-    <row r="99" spans="1:58">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D99" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:58">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E101" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="103" spans="1:58">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F103" s="54" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:58" s="56" customFormat="1">
+    <row r="104" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="38"/>
       <c r="B104" s="44"/>
       <c r="C104" s="38"/>
@@ -9583,7 +9465,7 @@
       <c r="AI104" s="124"/>
       <c r="AJ104" s="104"/>
     </row>
-    <row r="105" spans="1:58">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E105" s="66"/>
       <c r="AJ105" s="125"/>
       <c r="AK105" s="125"/>
@@ -9609,22 +9491,22 @@
       <c r="BE105" s="125"/>
       <c r="BF105" s="125"/>
     </row>
-    <row r="106" spans="1:58">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D106" s="54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:58">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E108" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:58">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F110" s="54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:58" s="56" customFormat="1">
+    <row r="111" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="38"/>
       <c r="B111" s="44"/>
       <c r="C111" s="38"/>
@@ -9661,7 +9543,7 @@
       <c r="AI111" s="124"/>
       <c r="AJ111" s="104"/>
     </row>
-    <row r="112" spans="1:58">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E112" s="66"/>
       <c r="AJ112" s="125"/>
       <c r="AK112" s="125"/>
@@ -9687,22 +9569,22 @@
       <c r="BE112" s="125"/>
       <c r="BF112" s="125"/>
     </row>
-    <row r="113" spans="1:58">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D113" s="54" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:58">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E115" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="117" spans="1:58">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F117" s="54" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="118" spans="1:58" s="56" customFormat="1">
+    <row r="118" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="38"/>
       <c r="B118" s="44"/>
       <c r="C118" s="38"/>
@@ -9739,22 +9621,22 @@
       <c r="AI118" s="124"/>
       <c r="AJ118" s="104"/>
     </row>
-    <row r="119" spans="1:58">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D119" s="54" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:58">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E121" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="123" spans="1:58">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F123" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:58" s="56" customFormat="1">
+    <row r="124" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="38"/>
       <c r="B124" s="44"/>
       <c r="C124" s="38"/>
@@ -9791,7 +9673,7 @@
       <c r="AI124" s="124"/>
       <c r="AJ124" s="104"/>
     </row>
-    <row r="125" spans="1:58">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E125" s="66"/>
       <c r="AJ125" s="125"/>
       <c r="AK125" s="125"/>
@@ -9817,22 +9699,22 @@
       <c r="BE125" s="125"/>
       <c r="BF125" s="125"/>
     </row>
-    <row r="126" spans="1:58">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.2">
       <c r="D126" s="54" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" spans="1:58">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E128" s="54" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:58">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.2">
       <c r="F130" s="54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="131" spans="1:58" s="56" customFormat="1">
+    <row r="131" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="38"/>
       <c r="B131" s="44"/>
       <c r="C131" s="38"/>
@@ -9869,7 +9751,7 @@
       <c r="AI131" s="124"/>
       <c r="AJ131" s="104"/>
     </row>
-    <row r="132" spans="1:58">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.2">
       <c r="E132" s="66"/>
       <c r="AJ132" s="125"/>
       <c r="AK132" s="125"/>
@@ -9895,7 +9777,7 @@
       <c r="BE132" s="125"/>
       <c r="BF132" s="125"/>
     </row>
-    <row r="133" spans="1:58" s="56" customFormat="1">
+    <row r="133" spans="1:58" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="38"/>
       <c r="B133" s="44"/>
       <c r="C133" s="38"/>
@@ -10080,16 +9962,16 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="11.5"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="54" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="54" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.1640625" style="54" customWidth="1"/>
     <col min="5" max="16384" width="9.33203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
         <v>124</v>
       </c>
@@ -10103,7 +9985,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="111" t="s">
         <v>39</v>
       </c>
@@ -10117,7 +9999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="111" t="s">
         <v>128</v>
       </c>
@@ -10131,7 +10013,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="111" t="s">
         <v>132</v>
       </c>
@@ -10145,7 +10027,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="111" t="s">
         <v>136</v>
       </c>
@@ -10156,7 +10038,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="111" t="s">
         <v>139</v>
       </c>
@@ -10164,7 +10046,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="111" t="s">
         <v>141</v>
       </c>
@@ -10172,27 +10054,27 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="111" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="111" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="111" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="111" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="111" t="s">
         <v>147</v>
       </c>
